--- a/src/main/resources/data/bpp/keywords.metadata/keywords/FMWK_Keyword.xlsx
+++ b/src/main/resources/data/bpp/keywords.metadata/keywords/FMWK_Keyword.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Noah\trunk\src\main\resources\keywords.metadata\keywords\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{775AD915-FB8F-4B5B-A590-5BBEE9C672BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22650" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19890" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +38,7 @@
     <t>FILE</t>
   </si>
   <si>
-    <t>src/main/resources/keywords.metadata/American_Citites_Data.dat</t>
+    <t>src/main/resources/data/bpp/keywords.metadata/American_Citites_Data.dat</t>
   </si>
   <si>
     <t>Array</t>
@@ -56,13 +50,13 @@
     <t>AUTO_CITYEU</t>
   </si>
   <si>
-    <t>src/main/resources/keywords.metadata/European_Citites_Data.dat</t>
+    <t>src/main/resources/data/bpp/keywords.metadata/European_Citites_Data.dat</t>
   </si>
   <si>
     <t>AUTO_STATE</t>
   </si>
   <si>
-    <t>src/main/resources/keywords.metadata/States_Data.dat</t>
+    <t>src/main/resources/data/bpp/keywords.metadata/States_Data.dat</t>
   </si>
   <si>
     <t>Returns a randomly selected state from the data listed in the file specified in the Data Source column</t>
@@ -80,7 +74,7 @@
     <t>AUTO_STREETUSA</t>
   </si>
   <si>
-    <t>src/main/resources/keywords.metadata/Street_USA_Data.dat</t>
+    <t>src/main/resources/data/bpp/keywords.metadata/Street_USA_Data.dat</t>
   </si>
   <si>
     <t>Returns a randomly selected USA street address from the data listed in the file specified in the Data Source column</t>
@@ -89,7 +83,7 @@
     <t>AUTO_STREETUK</t>
   </si>
   <si>
-    <t>src/main/resources/keywords.metadata/Street_UK_Data.dat</t>
+    <t>src/main/resources/data/bpp/keywords.metadata/Street_UK_Data.dat</t>
   </si>
   <si>
     <t>Returns a randomly selected EU street address from the data listed in the file specified in the Data Source column</t>
@@ -155,7 +149,7 @@
     <t>AUTO_COMPANYNAME</t>
   </si>
   <si>
-    <t>src/main/resources/keywords.metadata/Company_Names_Data.dat</t>
+    <t>src/main/resources/data/bpp/keywords.metadata/Company_Names_Data.dat</t>
   </si>
   <si>
     <t>AUTO_VATNUMBER</t>
@@ -167,7 +161,7 @@
     <t>AUTO_EMAIL</t>
   </si>
   <si>
-    <t>src/main/resources/keywords.metadata/Emails.dat</t>
+    <t>src/main/resources/data/bpp/keywords.metadata/Emails.dat</t>
   </si>
   <si>
     <t>Returns a randomly selected email from the data listed in the file specified in the Data Source column</t>
@@ -188,7 +182,7 @@
     <t>AUTO_FIRSTNAMEFILE</t>
   </si>
   <si>
-    <t>src/main/resources/keywords.metadata/First_Name_Data.dat</t>
+    <t>src/main/resources/data/bpp/keywords.metadata/First_Name_Data.dat</t>
   </si>
   <si>
     <t>Returns a randomly selected first name from the data listed in the file specified in the Data Source column</t>
@@ -197,7 +191,7 @@
     <t>AUTO_LASTNAMEFILE</t>
   </si>
   <si>
-    <t>src/main/resources/keywords.metadata/Last_Name_Data.dat</t>
+    <t>src/main/resources/data/bpp/keywords.metadata/Last_Name_Data.dat</t>
   </si>
   <si>
     <t>Returns a randomly selected last name from the data listed in the file specified in the Data Source column</t>
@@ -215,8 +209,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +245,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +403,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -283,9 +613,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -319,17 +891,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="Примечание" xfId="14" builtinId="10"/>
+    <cellStyle name="40% — Акцент4" xfId="15" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -587,26 +1203,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="116.28515625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="24.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.57142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="116.285714285714" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.85714285714286" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -726,7 +1342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" ht="30" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -741,7 +1357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" ht="30" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -756,7 +1372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" ht="30" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
@@ -771,7 +1387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45">
+    <row r="11" ht="45" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -786,7 +1402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" ht="30" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
@@ -801,7 +1417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60">
+    <row r="13" ht="60" spans="1:5">
       <c r="A13" s="10" t="s">
         <v>40</v>
       </c>
@@ -833,7 +1449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
+    <row r="15" ht="30" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>45</v>
       </c>
@@ -865,7 +1481,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" ht="30" spans="1:5">
       <c r="A17" s="10" t="s">
         <v>50</v>
       </c>
@@ -880,7 +1496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30">
+    <row r="18" ht="30" spans="1:5">
       <c r="A18" s="10" t="s">
         <v>52</v>
       </c>
@@ -930,29 +1546,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="20.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="44.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -969,7 +1587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90">
+    <row r="2" ht="75" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -985,6 +1603,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>